--- a/数据整理/stocks/A股/上证主板/600958-东方证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600958-东方证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2721,4 +2722,1274 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.0122</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>238.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9146</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1313</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7569</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008590</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6468</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5484</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008591</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5332</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5042</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4783</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4723</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4414</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3948</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2957</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2522</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2239</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600958-东方证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600958-东方证券.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3992,4 +3993,3818 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>338.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.3549</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>226.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.2384</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001679</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中国稀缺资产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.8708</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>117.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.2003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001102</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源国家比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>73.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.6245</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8736</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002079</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源中国稀缺资产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6227</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3238</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2327</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0119</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9498</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9227</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8099</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7397</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7234</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7131</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7124</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6672</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6272</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6018</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5748</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5735</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5651</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5467</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5406</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4824</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4256</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3948</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3946</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3726</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3639</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3615</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3406</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3137</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3082</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3078</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2893</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2744</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2722</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2088</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1651</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003850</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>65.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003851</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>97.25</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>46.83</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004806</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长信先机两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>76.42</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>95.50</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>65.91</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600958-东方证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600958-东方证券.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7807,4 +7808,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>99</v>
+      </c>
+      <c r="D2" t="n">
+        <v>66.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600958-东方证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600958-东方证券.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7816,7 +7817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7827,17 +7828,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7847,14 +7868,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>99</v>
-      </c>
-      <c r="D2" t="n">
-        <v>66.44</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>358.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.0831</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -7863,14 +7906,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.85</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>238.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.9992</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -7879,14 +7944,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.56</v>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9767</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -7895,13 +7982,2733 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>74.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4478</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4397</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3298</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0645</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9219</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7634</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7316</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7113</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6847</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6506</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5988</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007726</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商瑞文混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5900</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5788</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5737</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5422</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4912</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4685</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4421</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3839</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3762</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3191</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2991</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2937</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1874</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007725</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商瑞文混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>26.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.22</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007085</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商瑞庆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>27.48</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002574</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商瑞庆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>27.48</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>72</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D3" t="n">
+        <v>66.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>36</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>29.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600958-东方证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600958-东方证券.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10607,7 +10608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10618,17 +10619,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10638,14 +10659,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>72</v>
-      </c>
-      <c r="D2" t="n">
-        <v>42.24</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>322.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.6057</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -10654,14 +10697,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>99</v>
-      </c>
-      <c r="D3" t="n">
-        <v>66.44</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>230.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.9602</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -10670,14 +10735,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>32</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.85</v>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3644</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -10686,14 +10773,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.56</v>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2901</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -10702,13 +10811,1687 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1343</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1012</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8262</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5745</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5434</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5324</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5310</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5042</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4781</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4273</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4013</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3438</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2532</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003850</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>46.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴业成长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003851</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>46.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>68.71</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>72</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>99</v>
+      </c>
+      <c r="D4" t="n">
+        <v>66.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>36</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>29.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600958-东方证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600958-东方证券.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12374,7 +12375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12385,17 +12386,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12405,14 +12426,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.29</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>326.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.9064</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -12421,14 +12464,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>72</v>
-      </c>
-      <c r="D3" t="n">
-        <v>42.24</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>228.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.7519</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -12437,14 +12502,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>99</v>
-      </c>
-      <c r="D4" t="n">
-        <v>66.44</v>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7070</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -12453,14 +12540,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>32</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22.85</v>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3554</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -12469,14 +12578,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>21</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20.56</v>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2658</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -12485,13 +12616,2577 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0355</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0347</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8649</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8031</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7593</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6625</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5981</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5780</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4682</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4589</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4542</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4250</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4185</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3478</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3448</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3119</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2681</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2060</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>48.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>48.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>49.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>51.60</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴业成长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001682</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新华鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013712</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>49.11</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013713</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>69</v>
+      </c>
+      <c r="D2" t="n">
+        <v>37.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>72</v>
+      </c>
+      <c r="D4" t="n">
+        <v>42.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>99</v>
+      </c>
+      <c r="D5" t="n">
+        <v>66.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>32</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20.56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>36</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>29.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600958-东方证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600958-东方证券.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>37.16</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D3" t="n">
-        <v>30.29</v>
+        <v>37.16</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
-        <v>42.24</v>
+        <v>30.29</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D5" t="n">
-        <v>66.44</v>
+        <v>42.24</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="D6" t="n">
-        <v>22.85</v>
+        <v>66.44</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>20.56</v>
+        <v>22.85</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20.56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>36</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>29.14</v>
       </c>
     </row>
@@ -600,6 +617,1924 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>289.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.9674</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>215.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.6284</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4173</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4076</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9440</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6461</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5267</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014917</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5097</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4698</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3616</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3503</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3456</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2691</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2583</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安中证证券公司A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014918</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012874</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>63.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002315</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002310</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516730</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浦银安盛中证证券公司30ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010931</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安鑫元1个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015859</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015860</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010932</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国联安鑫元1个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015598</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3277,7 +5212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5043,7 +6978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7833,7 +9768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11647,7 +13582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12917,7 +14852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13771,7 +15706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600958-东方证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600958-东方证券.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D2" t="n">
-        <v>25.98</v>
+        <v>36.12</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>37.16</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D4" t="n">
-        <v>30.29</v>
+        <v>37.16</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>42.24</v>
+        <v>30.29</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D6" t="n">
-        <v>66.44</v>
+        <v>42.24</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="D7" t="n">
-        <v>22.85</v>
+        <v>66.44</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>20.56</v>
+        <v>22.85</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1454 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>21</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>36</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>29.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>389.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.6600</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>229.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.2216</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8325</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4510</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0402</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8206</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5928</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5919</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5539</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5250</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4710</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4411</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4061</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3488</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008591</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3320</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3201</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3040</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008590</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2995</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2909</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2698</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1826</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>66.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>66.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2058,3102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>296.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.7660</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>221.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.2072</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>144.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.5564</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4930</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4848</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3311</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9902</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5873</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014917</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5481</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5242</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4684</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4267</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3978</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3881</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3539</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3024</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2920</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2746</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2425</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2193</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013500</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安中证证券公司A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012874</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014918</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴业聚源混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>516730</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浦银安盛中证证券公司30ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010931</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国联安鑫元1个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>31.28</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005519</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华混改红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012111</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华安颐混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>100.45</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013742</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴业聚源混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015860</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015859</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>015598</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012112</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华安颐混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009635</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009634</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015693</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010932</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国联安鑫元1个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>31.28</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011072</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2534,7 +7071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5212,7 +9749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6978,7 +11515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9768,7 +14305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13582,7 +18119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14852,7 +19389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15704,1428 +20241,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512880</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>389.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>10.6600</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>512000</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>229.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6.2216</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512900</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>67.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.8325</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161720</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>56.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.4510</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>163113</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>申万菱信中证申万证券行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>34.33</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.0402</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161027</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国中证全指证券公司指数</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>31.56</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8206</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>512070</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达沪深300非银行金融ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>34.87</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>99.39</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5928</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501016</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰中证申万证券行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>22.42</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5919</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001552</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>天弘中证证券保险指数型发起式 A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>28.55</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.96</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5539</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>159993</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华国证证券龙头ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>15.72</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>97.91</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.5250</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>501047</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇添富中证全指证券公司指数LOF A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>17.84</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4710</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>160633</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>17.23</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.4411</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>240005</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华宝多策略增长</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>12.73</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.4061</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008555</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华商龙头优势混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>81.25</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.3488</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008591</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>天弘中证全指证券公司指数C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>12.87</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3320</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001553</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>天弘中证证券保险指数型发起式 C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>16.50</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.96</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3201</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>515560</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>建信中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>11.30</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>98.90</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.3040</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008590</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>天弘中证全指证券公司指数A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>11.61</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.2995</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>000800</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华商未来主题混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>82.01</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.2909</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>501048</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>汇添富中证全指证券公司指数LOF C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>10.22</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.2698</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>160625</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>鹏华中证800证券保险指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>13.21</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.2431</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>515010</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华夏中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>98.48</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1916</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>502010</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>易方达证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1826</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>160419</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华安中证全指证券公司指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1556</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>003986</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数优选增强A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>14.20</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1534</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>257040</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>国联安红利混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.70</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1163</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>502053</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>长盛中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0789</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>160516</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>博时中证全指证券公司指数</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0666</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>510200</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>汇安上证证券ETF</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0428</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>515630</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>鹏华中证800证券保险ETF</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>96.93</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0381</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>515850</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>富国中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0325</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>002145</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>诺安景鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0267</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>008838</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>德邦量化对冲策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>66.58</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>512570</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>易方达中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>98.58</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>008839</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>德邦量化对冲策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>66.58</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>007794</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数优选增强C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>